--- a/dynamo-integration-import/src/test/resources/importertest.xlsx
+++ b/dynamo-integration-import/src/test/resources/importertest.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17571"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832427C8-39B2-4CA1-B437-07C68019BC2C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -101,7 +102,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -117,7 +118,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -436,11 +437,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -449,7 +450,7 @@
     <col min="6" max="6" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -474,8 +475,11 @@
       <c r="H1" s="3">
         <v>41733</v>
       </c>
+      <c r="I1">
+        <v>6.66</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -497,8 +501,11 @@
       <c r="H2" s="3">
         <v>42129</v>
       </c>
+      <c r="I2">
+        <v>6.66</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -521,8 +528,11 @@
         <v>0</v>
       </c>
       <c r="H3" s="3"/>
+      <c r="I3">
+        <v>6.66</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -544,8 +554,11 @@
       <c r="G4" t="b">
         <v>0</v>
       </c>
+      <c r="I4">
+        <v>6.66</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -567,8 +580,11 @@
       <c r="G5" t="b">
         <v>0</v>
       </c>
+      <c r="I5">
+        <v>6.66</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -590,8 +606,11 @@
       <c r="G6" t="b">
         <v>0</v>
       </c>
+      <c r="I6">
+        <v>6.66</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -612,6 +631,9 @@
       </c>
       <c r="G7" t="b">
         <v>0</v>
+      </c>
+      <c r="I7">
+        <v>6.66</v>
       </c>
     </row>
   </sheetData>
